--- a/pattern_match/pattern_match_flora.xlsx
+++ b/pattern_match/pattern_match_flora.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbbutar\Documents\R\Konservasi_ANJ\pattern_match\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robby\Documents\My R\Konservasi_ANJ\pattern_match\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81DFFF4-CE9D-4DE0-B123-4941D7E3DBFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="analisa" sheetId="1" r:id="rId1"/>
@@ -19,6 +20,7 @@
     <sheet name="PMP" sheetId="5" r:id="rId5"/>
     <sheet name="PPM" sheetId="6" r:id="rId6"/>
     <sheet name="ANJAS" sheetId="7" r:id="rId7"/>
+    <sheet name="ANJAP" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">analisa!$A$1:$E$1</definedName>
@@ -29,15 +31,402 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="373">
+  <si>
+    <t>Nama Latin</t>
+  </si>
+  <si>
+    <t>Nama Lokal</t>
+  </si>
+  <si>
+    <t>baru</t>
+  </si>
+  <si>
+    <t>closest.pendaki.detail</t>
+  </si>
+  <si>
+    <t>closest.All</t>
+  </si>
+  <si>
+    <t>statusUM</t>
+  </si>
+  <si>
+    <t>statusAll</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Nama.Umum</t>
+  </si>
+  <si>
+    <t>Nama.Lokal</t>
+  </si>
   <si>
     <t>Jumlah</t>
   </si>
   <si>
-    <t>Nama Latin</t>
-  </si>
-  <si>
-    <t>Nama Lokal</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Namalatin.fix</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>English.name</t>
+  </si>
+  <si>
+    <t>Indonesian.name</t>
+  </si>
+  <si>
+    <t>CITES</t>
+  </si>
+  <si>
+    <t>IUCN</t>
+  </si>
+  <si>
+    <t>PPRI</t>
+  </si>
+  <si>
+    <t>Permenlhk.106</t>
+  </si>
+  <si>
+    <t>Endemism</t>
+  </si>
+  <si>
+    <t>Bulbophylum Sp</t>
+  </si>
+  <si>
+    <t>Bulbophylum acutilingae</t>
+  </si>
+  <si>
+    <t>Bulbophyllum sp 1</t>
+  </si>
+  <si>
+    <t>TID-24</t>
+  </si>
+  <si>
+    <t>Tidak berkayu</t>
+  </si>
+  <si>
+    <t>Orchidaceae</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Tectona grandis</t>
+  </si>
+  <si>
+    <t>Memosa pudica</t>
+  </si>
+  <si>
+    <t>Tectona grandis L.f.</t>
+  </si>
+  <si>
+    <t>POH-269</t>
+  </si>
+  <si>
+    <t>Pohon</t>
+  </si>
+  <si>
+    <t>Verbenaceae</t>
+  </si>
+  <si>
+    <t>Jati</t>
+  </si>
+  <si>
+    <t>Nama.Latin</t>
+  </si>
+  <si>
+    <t>Anggrek Bawang</t>
+  </si>
+  <si>
+    <t>Acriopsis liliifolia</t>
+  </si>
+  <si>
+    <t>Nanas</t>
+  </si>
+  <si>
+    <t>Ananas comosus (L.) Merr.</t>
+  </si>
+  <si>
+    <t>Anggrek Jamrud</t>
+  </si>
+  <si>
+    <t>Dendrobium macrophyllum</t>
+  </si>
+  <si>
+    <t>Diplocaulobium sp 1</t>
+  </si>
+  <si>
+    <t>K semar</t>
+  </si>
+  <si>
+    <t>Nepenthes ampullaria</t>
+  </si>
+  <si>
+    <t>Pseudovanila Sp</t>
+  </si>
+  <si>
+    <t>Kayu cina</t>
+  </si>
+  <si>
+    <t>Podocarpus blumei</t>
+  </si>
+  <si>
+    <t>Putri malu</t>
+  </si>
+  <si>
+    <t>Anggrek tanah kecil</t>
+  </si>
+  <si>
+    <t>Bromheadia finlaysoniana</t>
+  </si>
+  <si>
+    <t>Anggrek…..</t>
+  </si>
+  <si>
+    <t>Dendrobium nindii</t>
+  </si>
+  <si>
+    <t>Anggrek Nenas</t>
+  </si>
+  <si>
+    <t>Dendrobium Smilliae</t>
+  </si>
+  <si>
+    <t>Anggrek Raja</t>
+  </si>
+  <si>
+    <t>Grammatophyllum papuanum</t>
+  </si>
+  <si>
+    <t>Genjer</t>
+  </si>
+  <si>
+    <t>Limnocharis flava (L.) Buchenau</t>
+  </si>
+  <si>
+    <t>Teratai</t>
+  </si>
+  <si>
+    <t>Nymphaea caerulea</t>
+  </si>
+  <si>
+    <t>Philippine Ground Orchid</t>
+  </si>
+  <si>
+    <t>Spathoglottis plicata</t>
+  </si>
+  <si>
+    <t>Kantong semar</t>
+  </si>
+  <si>
+    <t>Nepenthes sp</t>
+  </si>
+  <si>
+    <t>Anggrek Belimbing</t>
+  </si>
+  <si>
+    <t>Dendrobium coeloglossum</t>
+  </si>
+  <si>
+    <t>Pala hutan</t>
+  </si>
+  <si>
+    <t>Horsfieldia crassifolia</t>
+  </si>
+  <si>
+    <t>Mahang</t>
+  </si>
+  <si>
+    <t>Macaranga hispida</t>
+  </si>
+  <si>
+    <t>Nepenthes alata</t>
+  </si>
+  <si>
+    <t>Ciplukan</t>
+  </si>
+  <si>
+    <t>Physallis minima</t>
+  </si>
+  <si>
+    <t>Pecut kuda</t>
+  </si>
+  <si>
+    <t>Stachytarpheta indica</t>
+  </si>
+  <si>
+    <t>Gigantochloa apus</t>
+  </si>
+  <si>
+    <t>Bambu tali</t>
+  </si>
+  <si>
+    <t>Pometia pinnata</t>
+  </si>
+  <si>
+    <t>Matoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muntingia calabura</t>
+  </si>
+  <si>
+    <t>Kersen</t>
+  </si>
+  <si>
+    <t>Dendrobium mirbelianum</t>
+  </si>
+  <si>
+    <t>Anggrek mirbelianum</t>
+  </si>
+  <si>
+    <t>Anggrek tanah</t>
+  </si>
+  <si>
+    <t>Nymphaea alba</t>
+  </si>
+  <si>
+    <t>Teratai putih</t>
+  </si>
+  <si>
+    <t>Anggrek jamrud</t>
+  </si>
+  <si>
+    <t>Cassia alata L.</t>
+  </si>
+  <si>
+    <t>Ketapang cina</t>
+  </si>
+  <si>
+    <t>Casuarina eusetifolia</t>
+  </si>
+  <si>
+    <t>Cemara laut</t>
+  </si>
+  <si>
+    <t>Hibiscus tiliaceus</t>
+  </si>
+  <si>
+    <t>Waru</t>
+  </si>
+  <si>
+    <t>Ficus benjaminna L.</t>
+  </si>
+  <si>
+    <t>Beringin putih</t>
+  </si>
+  <si>
+    <t>Baringtonia asiatica</t>
+  </si>
+  <si>
+    <t>Butun/keben</t>
+  </si>
+  <si>
+    <t>Claderia viridiflora</t>
+  </si>
+  <si>
+    <t>Anggrek tanah claderia</t>
+  </si>
+  <si>
+    <t>Mallotus mollissimus</t>
+  </si>
+  <si>
+    <t>Tiup beling</t>
+  </si>
+  <si>
+    <t>Macaranga gigantea</t>
+  </si>
+  <si>
+    <t>Merkubung</t>
+  </si>
+  <si>
+    <t>Octomeles sumatrana</t>
+  </si>
+  <si>
+    <t>Benuang</t>
+  </si>
+  <si>
+    <t>Lithocarpus sundaicus Bi, Rhd.</t>
+  </si>
+  <si>
+    <t>Pasang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macaranga hypoleuca </t>
+  </si>
+  <si>
+    <t>Mahang damar</t>
+  </si>
+  <si>
+    <t>Merkubun</t>
+  </si>
+  <si>
+    <t>Duabanga moluccana</t>
+  </si>
+  <si>
+    <t>Alstonia pneumatophora</t>
+  </si>
+  <si>
+    <t>Pulai</t>
+  </si>
+  <si>
+    <t>Senangen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficus benjaminna </t>
+  </si>
+  <si>
+    <t>Beringin hutan</t>
+  </si>
+  <si>
+    <t>Anthocephalus macrophyllus</t>
+  </si>
+  <si>
+    <t>Jabon merah</t>
+  </si>
+  <si>
+    <t>Eugenia sp.</t>
+  </si>
+  <si>
+    <t>Jambu hutan</t>
+  </si>
+  <si>
+    <t>Calophyllum</t>
+  </si>
+  <si>
+    <t>Bintanggur</t>
+  </si>
+  <si>
+    <t>Vatica rassak Bl.</t>
+  </si>
+  <si>
+    <t>Resak</t>
+  </si>
+  <si>
+    <t>Draconto melon dao</t>
+  </si>
+  <si>
+    <t>Dahu</t>
+  </si>
+  <si>
+    <t>Albizia chinensis</t>
+  </si>
+  <si>
+    <t>Sengon</t>
   </si>
   <si>
     <t>baru</t>
@@ -55,22 +444,544 @@
     <t>statusAll</t>
   </si>
   <si>
+    <t>Nama.Lokal</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Intsia bijuga</t>
+  </si>
+  <si>
+    <t>Lantana camara</t>
+  </si>
+  <si>
+    <t>Baru</t>
+  </si>
+  <si>
+    <t>Kersen</t>
+  </si>
+  <si>
+    <t>Albizia chinensis</t>
+  </si>
+  <si>
+    <t>Anthocephalus chinensis</t>
+  </si>
+  <si>
+    <t>Pholidota chinensis</t>
+  </si>
+  <si>
+    <t>Sengon</t>
+  </si>
+  <si>
+    <t>Casuarina eusetifolia</t>
+  </si>
+  <si>
+    <t>Vatica rassak Bl.</t>
+  </si>
+  <si>
+    <t>Casearia grewiaefolia</t>
+  </si>
+  <si>
+    <t>Cemara laut</t>
+  </si>
+  <si>
+    <t>Duabanga moluccana</t>
+  </si>
+  <si>
+    <t>Aquilaria malaccensis</t>
+  </si>
+  <si>
+    <t>Macaranga motleyana</t>
+  </si>
+  <si>
+    <t>Benuang</t>
+  </si>
+  <si>
+    <t>Eugenia sp.</t>
+  </si>
+  <si>
+    <t>Ploconglottis sp.</t>
+  </si>
+  <si>
+    <t>Eugenia spicata</t>
+  </si>
+  <si>
+    <t>Jambu hutan</t>
+  </si>
+  <si>
+    <t>Hibiscus tiliaceus</t>
+  </si>
+  <si>
+    <t>Ficus benjamina</t>
+  </si>
+  <si>
+    <t>Hibiscus macrophyllus</t>
+  </si>
+  <si>
+    <t>Waru</t>
+  </si>
+  <si>
+    <t>Lithocarpus sundaicus Bi, Rhd.</t>
+  </si>
+  <si>
+    <t>Phallus indusiatus</t>
+  </si>
+  <si>
+    <t>Lithocarpus ewyckii</t>
+  </si>
+  <si>
+    <t>Pasang</t>
+  </si>
+  <si>
+    <t>Mallotus mollissimus</t>
+  </si>
+  <si>
+    <t>Mallotus macrostachyus</t>
+  </si>
+  <si>
+    <t>Tiup beling</t>
+  </si>
+  <si>
+    <t>Senangen</t>
+  </si>
+  <si>
+    <t>Gnetum gnemon</t>
+  </si>
+  <si>
+    <t>Shorea balangeran</t>
+  </si>
+  <si>
+    <t>Namalatin.fix</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
     <t>Family</t>
   </si>
   <si>
-    <t>Nama.Umum</t>
-  </si>
-  <si>
-    <t>Nama.Lokal</t>
-  </si>
-  <si>
-    <t>Jumlah</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Namalatin.fix</t>
+    <t>English.name</t>
+  </si>
+  <si>
+    <t>Indonesian.name</t>
+  </si>
+  <si>
+    <t>CITES</t>
+  </si>
+  <si>
+    <t>IUCN</t>
+  </si>
+  <si>
+    <t>PPRI</t>
+  </si>
+  <si>
+    <t>Permenlhk.106</t>
+  </si>
+  <si>
+    <t>Endemism</t>
+  </si>
+  <si>
+    <t>Alstonia pneumatophora</t>
+  </si>
+  <si>
+    <t>Alstonia scholaris</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>MAG-49</t>
+  </si>
+  <si>
+    <t>Berkayu</t>
+  </si>
+  <si>
+    <t>Magnoliopsida</t>
+  </si>
+  <si>
+    <t>Apocynaceae</t>
+  </si>
+  <si>
+    <t>Pulai</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Baringtonia asiatica</t>
+  </si>
+  <si>
+    <t>Myristica argentea</t>
+  </si>
+  <si>
+    <t>Barringtonia spicata</t>
+  </si>
+  <si>
+    <t>MAG-313</t>
+  </si>
+  <si>
+    <t>Pohon</t>
+  </si>
+  <si>
+    <t>Lecythidaceae</t>
+  </si>
+  <si>
+    <t>Putat</t>
+  </si>
+  <si>
+    <t>Calophyllum</t>
+  </si>
+  <si>
+    <t>Calophyllum inophyllum</t>
+  </si>
+  <si>
+    <t>MAG-104</t>
+  </si>
+  <si>
+    <t>Clusiaceae</t>
+  </si>
+  <si>
+    <t>Kiras</t>
+  </si>
+  <si>
+    <t>Cassia alata L.</t>
+  </si>
+  <si>
+    <t>Mangifera indica L.</t>
+  </si>
+  <si>
+    <t>Cassia alata</t>
+  </si>
+  <si>
+    <t>MAG-230</t>
+  </si>
+  <si>
+    <t>Perdu</t>
+  </si>
+  <si>
+    <t>Fabaceae</t>
+  </si>
+  <si>
+    <t>Petai cina, balaka, gelinggang</t>
+  </si>
+  <si>
+    <t>Claderia viridiflora</t>
+  </si>
+  <si>
+    <t>Caryota mitis Lour.</t>
+  </si>
+  <si>
+    <t>LIL-88</t>
+  </si>
+  <si>
+    <t>Tidak berkayu</t>
+  </si>
+  <si>
+    <t>Liliopsida</t>
+  </si>
+  <si>
+    <t>Orchidaceae</t>
+  </si>
+  <si>
+    <t>The Green Flowered Claderia</t>
+  </si>
+  <si>
+    <t>Anggrek tanah claderia</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Tidak Endemik</t>
+  </si>
+  <si>
+    <t>Dendrobium mirbelianum</t>
+  </si>
+  <si>
+    <t>Dendrobium macrophillum</t>
+  </si>
+  <si>
+    <t>Dendrobium Mirbelianum</t>
+  </si>
+  <si>
+    <t>LIL-140</t>
+  </si>
+  <si>
+    <t>Mirbel's Dendrobium</t>
+  </si>
+  <si>
+    <t>Draconto melon dao</t>
+  </si>
+  <si>
+    <t>Giantochloa apus</t>
+  </si>
+  <si>
+    <t>Dracontomelon dao</t>
+  </si>
+  <si>
+    <t>MAG-19</t>
+  </si>
+  <si>
+    <t>Anacardiaceae</t>
+  </si>
+  <si>
+    <t>Sengkuang</t>
+  </si>
+  <si>
+    <t>Macaranga gigantea</t>
+  </si>
+  <si>
+    <t>MAG-196</t>
+  </si>
+  <si>
+    <t>Euphorbiaceae</t>
+  </si>
+  <si>
+    <t>Mahang daun besar</t>
+  </si>
+  <si>
+    <t>Macaranga hispida</t>
+  </si>
+  <si>
+    <t>Melastoma candidum</t>
+  </si>
+  <si>
+    <t>MAG-197</t>
+  </si>
+  <si>
+    <t>Pala hutan</t>
+  </si>
+  <si>
+    <t>Artocarpus heterophyllus Lamk.</t>
+  </si>
+  <si>
+    <t>Macaranga hypoleuca</t>
+  </si>
+  <si>
+    <t>MAG-199</t>
+  </si>
+  <si>
+    <t>Mahang</t>
+  </si>
+  <si>
+    <t>Octomeles sumatrana</t>
+  </si>
+  <si>
+    <t>Anthocephalus Cadamba</t>
+  </si>
+  <si>
+    <t>MAG-575</t>
+  </si>
+  <si>
+    <t>Tetramelaceae</t>
+  </si>
+  <si>
+    <t>Buradai, kayu leles</t>
+  </si>
+  <si>
+    <t>Pometia pinnata</t>
+  </si>
+  <si>
+    <t>MAG-541</t>
+  </si>
+  <si>
+    <t>Sapindaceae</t>
+  </si>
+  <si>
+    <t>Matoa</t>
+  </si>
+  <si>
+    <t>Spathoglottis plicata</t>
+  </si>
+  <si>
+    <t>Agathis dammara</t>
+  </si>
+  <si>
+    <t>LIL-135</t>
+  </si>
+  <si>
+    <t>Lembak</t>
+  </si>
+  <si>
+    <t>Nama.Latin</t>
+  </si>
+  <si>
+    <t>Nuri bayan</t>
+  </si>
+  <si>
+    <t>Nepenthes ampularia</t>
+  </si>
+  <si>
+    <t>Damar</t>
+  </si>
+  <si>
+    <t>Bambu bulu</t>
+  </si>
+  <si>
+    <t>Senganen</t>
+  </si>
+  <si>
+    <t>Arachnis flos-aeris</t>
+  </si>
+  <si>
+    <t>Gofasa/bitti</t>
+  </si>
+  <si>
+    <t>Vitex cofassus</t>
+  </si>
+  <si>
+    <t>Resak/merantian</t>
+  </si>
+  <si>
+    <t>Syzygimu aqueum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anggrek </t>
+  </si>
+  <si>
+    <t>Teratai putih</t>
+  </si>
+  <si>
+    <t>Nymphaea alba</t>
+  </si>
+  <si>
+    <t>Kantung semar mirabilis</t>
+  </si>
+  <si>
+    <t>Nepenthes mirabilis</t>
+  </si>
+  <si>
+    <t>Sarang semut</t>
+  </si>
+  <si>
+    <t>Myrmecodia</t>
+  </si>
+  <si>
+    <t>Myristica fragrans</t>
+  </si>
+  <si>
+    <t>Pala hutan papua</t>
+  </si>
+  <si>
+    <t>Meroxylon sagu Rotbb</t>
+  </si>
+  <si>
+    <t>Mangga hutan</t>
+  </si>
+  <si>
+    <t>Palem serdang</t>
+  </si>
+  <si>
+    <t>Livistona rotundifolia (Lamarck) Mart.</t>
+  </si>
+  <si>
+    <t>Langsat</t>
+  </si>
+  <si>
+    <t>Lansium domesticum Corr.</t>
+  </si>
+  <si>
+    <t>Merbau</t>
+  </si>
+  <si>
+    <t>Anggrek raksasa irian</t>
+  </si>
+  <si>
+    <t>Grammatophyllum papuanum</t>
+  </si>
+  <si>
+    <t>Melinjo</t>
+  </si>
+  <si>
+    <t>Ficusenjamina</t>
+  </si>
+  <si>
+    <t>Beringgin</t>
+  </si>
+  <si>
+    <t>Paku sayur</t>
+  </si>
+  <si>
+    <t>Diplazium esculentum</t>
+  </si>
+  <si>
+    <t>Anggrek jamrud</t>
+  </si>
+  <si>
+    <t>Dendrobium macrophyllum</t>
+  </si>
+  <si>
+    <t>Ciniris jugularis</t>
+  </si>
+  <si>
+    <t>Palem ekor ikan</t>
+  </si>
+  <si>
+    <t>Nyamplung</t>
+  </si>
+  <si>
+    <t>Paku sarang burung</t>
+  </si>
+  <si>
+    <t>Asplenium nidus L.</t>
+  </si>
+  <si>
+    <t>Cempedak</t>
+  </si>
+  <si>
+    <t>Artocarpus integer</t>
+  </si>
+  <si>
+    <t>Sukun hutan</t>
+  </si>
+  <si>
+    <t>Gaharu sirsak</t>
+  </si>
+  <si>
+    <t>Jabon merah</t>
+  </si>
+  <si>
+    <t>Anthocephalus macrophyllus</t>
+  </si>
+  <si>
+    <t>Jabon</t>
+  </si>
+  <si>
+    <t>Jabon putih</t>
+  </si>
+  <si>
+    <t>Pohon susu</t>
+  </si>
+  <si>
+    <t>Anggrek mirbelianum</t>
+  </si>
+  <si>
+    <t>Anggrek tanah</t>
+  </si>
+  <si>
+    <t>Ketapang cina</t>
+  </si>
+  <si>
+    <t>Butun/keben</t>
+  </si>
+  <si>
+    <t>Merkubun</t>
+  </si>
+  <si>
+    <t>Mahang damar</t>
+  </si>
+  <si>
+    <t>Bintanggur</t>
+  </si>
+  <si>
+    <t>Dahu</t>
   </si>
   <si>
     <t>ID</t>
@@ -79,6 +990,15 @@
     <t>Group</t>
   </si>
   <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Latin.name</t>
+  </si>
+  <si>
     <t>English.name</t>
   </si>
   <si>
@@ -100,235 +1020,142 @@
     <t>Endemism</t>
   </si>
   <si>
-    <t>Bulbophylum Sp</t>
-  </si>
-  <si>
-    <t>Bulbophylum acutilingae</t>
-  </si>
-  <si>
-    <t>Bulbophyllum sp 1</t>
-  </si>
-  <si>
-    <t>TID-24</t>
-  </si>
-  <si>
-    <t>Tidak berkayu</t>
-  </si>
-  <si>
-    <t>Orchidaceae</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>Tectona grandis</t>
-  </si>
-  <si>
-    <t>Memosa pudica</t>
-  </si>
-  <si>
-    <t>Tectona grandis L.f.</t>
-  </si>
-  <si>
-    <t>POH-269</t>
+    <t>MAG-610</t>
   </si>
   <si>
     <t>Pohon</t>
   </si>
   <si>
-    <t>Verbenaceae</t>
-  </si>
-  <si>
-    <t>Jati</t>
-  </si>
-  <si>
-    <t>Nama.Latin</t>
-  </si>
-  <si>
-    <t>Anggrek Bawang</t>
-  </si>
-  <si>
-    <t>Acriopsis liliifolia</t>
-  </si>
-  <si>
-    <t>Nanas</t>
-  </si>
-  <si>
-    <t>Ananas comosus (L.) Merr.</t>
-  </si>
-  <si>
-    <t>Anggrek Jamrud</t>
-  </si>
-  <si>
-    <t>Dendrobium macrophyllum</t>
-  </si>
-  <si>
-    <t>Diplocaulobium sp 1</t>
-  </si>
-  <si>
-    <t>K semar</t>
-  </si>
-  <si>
-    <t>Nepenthes ampullaria</t>
-  </si>
-  <si>
-    <t>Pseudovanila Sp</t>
-  </si>
-  <si>
-    <t>Kayu cina</t>
-  </si>
-  <si>
-    <t>Podocarpus blumei</t>
-  </si>
-  <si>
-    <t>Putri malu</t>
-  </si>
-  <si>
-    <t>Anggrek tanah kecil</t>
-  </si>
-  <si>
-    <t>Bromheadia finlaysoniana</t>
-  </si>
-  <si>
-    <t>Anggrek…..</t>
-  </si>
-  <si>
-    <t>Dendrobium nindii</t>
-  </si>
-  <si>
-    <t>Anggrek Nenas</t>
-  </si>
-  <si>
-    <t>Dendrobium Smilliae</t>
-  </si>
-  <si>
-    <t>Anggrek Raja</t>
-  </si>
-  <si>
-    <t>Grammatophyllum papuanum</t>
-  </si>
-  <si>
-    <t>Genjer</t>
-  </si>
-  <si>
-    <t>Limnocharis flava (L.) Buchenau</t>
-  </si>
-  <si>
-    <t>Teratai</t>
-  </si>
-  <si>
-    <t>Nymphaea caerulea</t>
-  </si>
-  <si>
-    <t>Philippine Ground Orchid</t>
-  </si>
-  <si>
-    <t>Spathoglottis plicata</t>
-  </si>
-  <si>
-    <t>Kantong semar</t>
-  </si>
-  <si>
-    <t>Nepenthes sp</t>
-  </si>
-  <si>
-    <t>Anggrek Belimbing</t>
-  </si>
-  <si>
-    <t>Dendrobium coeloglossum</t>
-  </si>
-  <si>
-    <t>Pala hutan</t>
-  </si>
-  <si>
-    <t>Horsfieldia crassifolia</t>
-  </si>
-  <si>
-    <t>Mahang</t>
-  </si>
-  <si>
-    <t>Macaranga hispida</t>
-  </si>
-  <si>
-    <t>Nepenthes alata</t>
-  </si>
-  <si>
-    <t>Ciplukan</t>
-  </si>
-  <si>
-    <t>Physallis minima</t>
-  </si>
-  <si>
-    <t>Pecut kuda</t>
-  </si>
-  <si>
-    <t>Stachytarpheta indica</t>
-  </si>
-  <si>
-    <t>Jamur tudung pengantin</t>
-  </si>
-  <si>
-    <t>Phallus indusiatus</t>
-  </si>
-  <si>
-    <t>Jamur</t>
-  </si>
-  <si>
-    <t>Cortinarius Sanguenus</t>
-  </si>
-  <si>
-    <t>Poliotha Mutabilis</t>
-  </si>
-  <si>
-    <t>Marasmius Ramealis</t>
-  </si>
-  <si>
-    <t>Jamur Ganoderma</t>
-  </si>
-  <si>
-    <t>Jamur Kayu</t>
-  </si>
-  <si>
-    <t>Gymnopus sp</t>
-  </si>
-  <si>
-    <t>Jamur lingzhi</t>
-  </si>
-  <si>
-    <t>Ganoderma Lucidum</t>
-  </si>
-  <si>
-    <t>Jamur myxomicota</t>
-  </si>
-  <si>
-    <t>Fuligo septica</t>
-  </si>
-  <si>
-    <t>Jamur pelapuk</t>
-  </si>
-  <si>
-    <t>Galerina marginata</t>
-  </si>
-  <si>
-    <t>Jamur tiram</t>
-  </si>
-  <si>
-    <t>Pleurotus ostreatus</t>
-  </si>
-  <si>
-    <t>jamur tudung pengantin</t>
+    <t>Magnoliopsida</t>
+  </si>
+  <si>
+    <t>Muntingiaceae</t>
+  </si>
+  <si>
+    <t>Muntingia calabura</t>
+  </si>
+  <si>
+    <t>Kersen</t>
+  </si>
+  <si>
+    <t>Tidak Dilindungi</t>
+  </si>
+  <si>
+    <t>Tidak Endemik</t>
+  </si>
+  <si>
+    <t>MAG-611</t>
+  </si>
+  <si>
+    <t>Fabaceae</t>
+  </si>
+  <si>
+    <t>Albizia chinensis</t>
+  </si>
+  <si>
+    <t>Chinese albizia</t>
+  </si>
+  <si>
+    <t>Sengon</t>
+  </si>
+  <si>
+    <t>Pine Tree</t>
+  </si>
+  <si>
+    <t>Casuarinaceae</t>
+  </si>
+  <si>
+    <t>Casuarina equisetifolia</t>
+  </si>
+  <si>
+    <t>Cemara laut</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Lythraceae</t>
+  </si>
+  <si>
+    <t>Duabanga moluccana</t>
+  </si>
+  <si>
+    <t>Benuang laki</t>
+  </si>
+  <si>
+    <t>Endemik</t>
+  </si>
+  <si>
+    <t>Perdu</t>
+  </si>
+  <si>
+    <t>Myrtaceae</t>
+  </si>
+  <si>
+    <t>Eugenia sp.</t>
+  </si>
+  <si>
+    <t>Suriname cherry</t>
+  </si>
+  <si>
+    <t>Ceremai belanda</t>
+  </si>
+  <si>
+    <t>Malvaceae</t>
+  </si>
+  <si>
+    <t>Talipariti tiliaceum</t>
+  </si>
+  <si>
+    <t>Beach Hibiscus</t>
+  </si>
+  <si>
+    <t>Waru</t>
+  </si>
+  <si>
+    <t>MAG-612</t>
+  </si>
+  <si>
+    <t>Fagaceae</t>
+  </si>
+  <si>
+    <t>Lithocarpus sundaicus</t>
+  </si>
+  <si>
+    <t>MAG-613</t>
+  </si>
+  <si>
+    <t>pohon</t>
+  </si>
+  <si>
+    <t>Euphorbiaceae</t>
+  </si>
+  <si>
+    <t>Mallotus mollissimus</t>
+  </si>
+  <si>
+    <t>Airy Shaw</t>
+  </si>
+  <si>
+    <t>Tutup beling</t>
+  </si>
+  <si>
+    <t>MAG-614</t>
+  </si>
+  <si>
+    <t>MAG-615</t>
+  </si>
+  <si>
+    <t>MAG-616</t>
+  </si>
+  <si>
+    <t>MAG-617</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,42 +1205,104 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="hasil_exist_ppmjul" displayName="hasil_exist_ppmjul" ref="A3:O5" totalsRowShown="0">
-  <autoFilter ref="A3:O5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="hasil_exist_ppmjul" displayName="hasil_exist_ppmjul" ref="A3:O5" totalsRowShown="0">
+  <autoFilter ref="A3:O5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="baru"/>
-    <tableColumn id="2" name="closest.pendaki.detail"/>
-    <tableColumn id="3" name="Namalatin.fix"/>
-    <tableColumn id="4" name="statusUM"/>
-    <tableColumn id="5" name="statusAll"/>
-    <tableColumn id="6" name="ID"/>
-    <tableColumn id="7" name="Group"/>
-    <tableColumn id="8" name="Family"/>
-    <tableColumn id="9" name="English.name"/>
-    <tableColumn id="10" name="Indonesian.name"/>
-    <tableColumn id="11" name="CITES"/>
-    <tableColumn id="12" name="IUCN"/>
-    <tableColumn id="13" name="PPRI"/>
-    <tableColumn id="14" name="Permenlhk.106"/>
-    <tableColumn id="15" name="Endemism"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="baru"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="closest.pendaki.detail"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Namalatin.fix"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="statusUM"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="statusAll"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Group"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Family"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="English.name"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Indonesian.name"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="CITES"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IUCN"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="PPRI"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Permenlhk.106"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Endemism"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="hasil_non_exist_ppmjul" displayName="hasil_non_exist_ppmjul" ref="A1:I2" totalsRowShown="0">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="hasil_non_exist_ppmjul" displayName="hasil_non_exist_ppmjul" ref="A1:I2" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="baru"/>
-    <tableColumn id="2" name="closest.pendaki.detail"/>
-    <tableColumn id="3" name="closest.All"/>
-    <tableColumn id="4" name="statusUM"/>
-    <tableColumn id="5" name="statusAll"/>
-    <tableColumn id="6" name="Family"/>
-    <tableColumn id="7" name="Nama.Umum"/>
-    <tableColumn id="8" name="Nama.Lokal"/>
-    <tableColumn id="9" name="Jumlah"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="baru"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="closest.pendaki.detail"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="closest.All"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="statusUM"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="statusAll"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Family"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Nama.Umum"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Nama.Lokal"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Jumlah"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="hasil_exist_anjapagu" displayName="hasil_exist_anjapagu" ref="A12:P25" totalsRowShown="0">
+  <autoFilter ref="A12:P25" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="baru"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="closest.pendaki.detail"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Namalatin.fix"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="statusUM"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="statusAll"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Group"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Class"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Family"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="English.name"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Indonesian.name"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="CITES"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="IUCN"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="PPRI"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="Permenlhk.106"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Endemism"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="hasil_non_exist_anjapagu" displayName="hasil_non_exist_anjapagu" ref="A1:G10" totalsRowShown="0">
+  <autoFilter ref="A1:G10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="baru"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="closest.pendaki.detail"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="closest.All"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="statusUM"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="statusAll"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Nama.Lokal"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Jumlah"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="insert_to_entry_database_anjapagu" displayName="insert_to_entry_database_anjapagu" ref="M1:X9" totalsRowShown="0">
+  <autoFilter ref="M1:X9" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Group"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Class"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Family"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Latin.name"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="English.name"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Indonesian.name"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="CITES"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="IUCN"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="PPRI"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Permenlhk.106"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Endemism"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -681,137 +1570,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="7" max="8" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>81</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>82</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>83</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -819,10 +1708,10 @@
         <v>94</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -833,32 +1722,338 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -866,14 +2061,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -881,19 +2076,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="1" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -902,28 +2097,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -932,17 +2127,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData/>
@@ -952,135 +2147,135 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="1" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" t="s">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1089,36 +2284,36 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>30</v>
       </c>
-      <c r="O4" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1127,248 +2322,248 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
         <v>71</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>73</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>78</v>
       </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1385,16 +2580,1634 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:X87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O1" t="s">
+        <v>319</v>
+      </c>
+      <c r="P1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1" t="s">
+        <v>323</v>
+      </c>
+      <c r="T1" t="s">
+        <v>324</v>
+      </c>
+      <c r="U1" t="s">
+        <v>325</v>
+      </c>
+      <c r="V1" t="s">
+        <v>326</v>
+      </c>
+      <c r="W1" t="s">
+        <v>327</v>
+      </c>
+      <c r="X1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>369</v>
+      </c>
+      <c r="N2" t="s">
+        <v>330</v>
+      </c>
+      <c r="O2" t="s">
+        <v>331</v>
+      </c>
+      <c r="P2" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>333</v>
+      </c>
+      <c r="S2" t="s">
+        <v>334</v>
+      </c>
+      <c r="V2" t="s">
+        <v>335</v>
+      </c>
+      <c r="W2" t="s">
+        <v>335</v>
+      </c>
+      <c r="X2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>370</v>
+      </c>
+      <c r="N3" t="s">
+        <v>330</v>
+      </c>
+      <c r="O3" t="s">
+        <v>331</v>
+      </c>
+      <c r="P3" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>339</v>
+      </c>
+      <c r="R3" t="s">
+        <v>340</v>
+      </c>
+      <c r="S3" t="s">
+        <v>341</v>
+      </c>
+      <c r="V3" t="s">
+        <v>335</v>
+      </c>
+      <c r="W3" t="s">
+        <v>335</v>
+      </c>
+      <c r="X3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>371</v>
+      </c>
+      <c r="N4" t="s">
+        <v>342</v>
+      </c>
+      <c r="O4" t="s">
+        <v>331</v>
+      </c>
+      <c r="P4" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>344</v>
+      </c>
+      <c r="S4" t="s">
+        <v>345</v>
+      </c>
+      <c r="U4" t="s">
+        <v>346</v>
+      </c>
+      <c r="V4" t="s">
+        <v>335</v>
+      </c>
+      <c r="W4" t="s">
+        <v>335</v>
+      </c>
+      <c r="X4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>372</v>
+      </c>
+      <c r="N5" t="s">
+        <v>330</v>
+      </c>
+      <c r="O5" t="s">
+        <v>331</v>
+      </c>
+      <c r="P5" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>348</v>
+      </c>
+      <c r="S5" t="s">
+        <v>349</v>
+      </c>
+      <c r="U5" t="s">
+        <v>346</v>
+      </c>
+      <c r="V5" t="s">
+        <v>335</v>
+      </c>
+      <c r="W5" t="s">
+        <v>335</v>
+      </c>
+      <c r="X5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N6" t="s">
+        <v>351</v>
+      </c>
+      <c r="O6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>353</v>
+      </c>
+      <c r="R6" t="s">
+        <v>354</v>
+      </c>
+      <c r="S6" t="s">
+        <v>355</v>
+      </c>
+      <c r="V6" t="s">
+        <v>335</v>
+      </c>
+      <c r="W6" t="s">
+        <v>335</v>
+      </c>
+      <c r="X6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>337</v>
+      </c>
+      <c r="N7" t="s">
+        <v>330</v>
+      </c>
+      <c r="O7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>357</v>
+      </c>
+      <c r="R7" t="s">
+        <v>358</v>
+      </c>
+      <c r="S7" t="s">
+        <v>359</v>
+      </c>
+      <c r="V7" t="s">
+        <v>335</v>
+      </c>
+      <c r="W7" t="s">
+        <v>335</v>
+      </c>
+      <c r="X7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>360</v>
+      </c>
+      <c r="N8" t="s">
+        <v>330</v>
+      </c>
+      <c r="O8" t="s">
+        <v>331</v>
+      </c>
+      <c r="P8" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>362</v>
+      </c>
+      <c r="V8" t="s">
+        <v>335</v>
+      </c>
+      <c r="W8" t="s">
+        <v>335</v>
+      </c>
+      <c r="X8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>363</v>
+      </c>
+      <c r="N9" t="s">
+        <v>364</v>
+      </c>
+      <c r="O9" t="s">
+        <v>331</v>
+      </c>
+      <c r="P9" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>366</v>
+      </c>
+      <c r="R9" t="s">
+        <v>367</v>
+      </c>
+      <c r="S9" t="s">
+        <v>368</v>
+      </c>
+      <c r="U9" t="s">
+        <v>346</v>
+      </c>
+      <c r="V9" t="s">
+        <v>335</v>
+      </c>
+      <c r="W9" t="s">
+        <v>335</v>
+      </c>
+      <c r="X9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" t="s">
+        <v>182</v>
+      </c>
+      <c r="O12" t="s">
+        <v>183</v>
+      </c>
+      <c r="P12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" t="s">
+        <v>190</v>
+      </c>
+      <c r="I15" t="s">
+        <v>204</v>
+      </c>
+      <c r="J15" t="s">
+        <v>187</v>
+      </c>
+      <c r="K15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J16" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I17" t="s">
+        <v>218</v>
+      </c>
+      <c r="J17" t="s">
+        <v>219</v>
+      </c>
+      <c r="K17" t="s">
+        <v>220</v>
+      </c>
+      <c r="L17" t="s">
+        <v>221</v>
+      </c>
+      <c r="M17" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" t="s">
+        <v>218</v>
+      </c>
+      <c r="J18" t="s">
+        <v>227</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>221</v>
+      </c>
+      <c r="P18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" t="s">
+        <v>232</v>
+      </c>
+      <c r="K19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" t="s">
+        <v>236</v>
+      </c>
+      <c r="K21" t="s">
+        <v>241</v>
+      </c>
+      <c r="M21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" t="s">
+        <v>190</v>
+      </c>
+      <c r="I22" t="s">
+        <v>236</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" t="s">
+        <v>249</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s">
+        <v>250</v>
+      </c>
+      <c r="M23" t="s">
+        <v>193</v>
+      </c>
+      <c r="P23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" t="s">
+        <v>253</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>254</v>
+      </c>
+      <c r="P24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" t="s">
+        <v>257</v>
+      </c>
+      <c r="G25" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" t="s">
+        <v>217</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" t="s">
+        <v>258</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B45" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>286</v>
+      </c>
+      <c r="B48" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>288</v>
+      </c>
+      <c r="B49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>290</v>
+      </c>
+      <c r="B51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>291</v>
+      </c>
+      <c r="B52" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>293</v>
+      </c>
+      <c r="B53" t="s">
+        <v>294</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>296</v>
+      </c>
+      <c r="B56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>297</v>
+      </c>
+      <c r="B57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B58" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>300</v>
+      </c>
+      <c r="B59" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>302</v>
+      </c>
+      <c r="B60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>303</v>
+      </c>
+      <c r="B61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>304</v>
+      </c>
+      <c r="B62" t="s">
+        <v>305</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>309</v>
+      </c>
+      <c r="B68" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>310</v>
+      </c>
+      <c r="B69" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>311</v>
+      </c>
+      <c r="B70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>312</v>
+      </c>
+      <c r="B73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>313</v>
+      </c>
+      <c r="B76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>314</v>
+      </c>
+      <c r="B79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>241</v>
+      </c>
+      <c r="B83" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>315</v>
+      </c>
+      <c r="B85" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>